--- a/medicine/Psychotrope/Caviste_(établissement)/Caviste_(établissement).xlsx
+++ b/medicine/Psychotrope/Caviste_(établissement)/Caviste_(établissement).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caviste_(%C3%A9tablissement)</t>
+          <t>Caviste_(établissement)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un caviste désigne les locaux de commerçants vendant du vin ou des spiritueux.
 Ces lieux ne sont pas destinés à la vente d'une autre boisson ou d'une autre marchandise. Elles sont soumises à une législation particulière, différente des restaurants, des bars à vin, et autres débits de boisson.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caviste_(%C3%A9tablissement)</t>
+          <t>Caviste_(établissement)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France les cavistes sont en prédominance dans les grandes villes, au sein des centres-villes, ainsi que dans les zones viticoles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France les cavistes sont en prédominance dans les grandes villes, au sein des centres-villes, ainsi que dans les zones viticoles.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caviste_(%C3%A9tablissement)</t>
+          <t>Caviste_(établissement)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, il existe environ 5 800 commerces[2]. Le chiffre d'affaires annuel moyen des cavistes est en croissance chaque année depuis les années 2000 alors que la consommation de vin des ménages est en décroissance sur la période[1]. Il y a un pic de ventes au moment des fêtes de fin d'année, où le chiffre d'affaires double par rapport à celui d'un mois en moyenne[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, il existe environ 5 800 commerces. Le chiffre d'affaires annuel moyen des cavistes est en croissance chaque année depuis les années 2000 alors que la consommation de vin des ménages est en décroissance sur la période. Il y a un pic de ventes au moment des fêtes de fin d'année, où le chiffre d'affaires double par rapport à celui d'un mois en moyenne.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caviste_(%C3%A9tablissement)</t>
+          <t>Caviste_(établissement)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le statut de l'établissement peut être retrouvé sous deux codes APE[4]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le statut de l'établissement peut être retrouvé sous deux codes APE:
 Commerce de détail de boissons en magasin spécialisé (47.25Z) ;
 Commerce de gros (commerce interentreprises) de boissons (46.34Z).</t>
         </is>
